--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1978.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1978.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.302731457276157</v>
+        <v>0.3786642551422119</v>
       </c>
       <c r="B1">
-        <v>2.516261942223068</v>
+        <v>1.850308656692505</v>
       </c>
       <c r="C1">
-        <v>9.573143369399746</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.220023157189427</v>
+        <v>2.568034887313843</v>
       </c>
       <c r="E1">
-        <v>1.076245820937284</v>
+        <v>1.378679513931274</v>
       </c>
     </row>
   </sheetData>
